--- a/biology/Zoologie/Capsodes_sulcatus/Capsodes_sulcatus.xlsx
+++ b/biology/Zoologie/Capsodes_sulcatus/Capsodes_sulcatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capsodes sulcatus (la grisette de la vigne) est une espèce d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae, originaire d'Europe occidentale.
 Cet insecte polyphage est notamment un ravageur de la vigne.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lopus sulcatus Fieber, 1861
  Capsodes vidali Wagner, 1959</t>
